--- a/biology/Botanique/Square_Albert-Tournaire/Square_Albert-Tournaire.xlsx
+++ b/biology/Botanique/Square_Albert-Tournaire/Square_Albert-Tournaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Albert-Tournaire est un square du 12e arrondissement de Paris, en France.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square Albert-Tournaire est situé à l'ouest du 12e arrondissement, près de la rive droite de la Seine, au débouché du pont d'Austerlitz. Son plan au sol occupe grossièrement un rectangle d'environ 130 m dans sa longueur, d'est en ouest, et 100 m dans sa largeur, du nord au sud. Au total, il occupe 11 760 m2.
 Le square est entouré de voies sur deux de ses côtés : le quai de la Rapée au nord-est et l'accès au pont d'Austerlitz au nord-ouest. Au sud-ouest, la voie Georges-Pompidou est située en contrebas et le sépare de la Seine. Au sud-est, il est limitrophe de l'institut médico-légal.
@@ -547,7 +561,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom honore Albert Tournaire (1862-1958), architecte en chef de l'Exposition coloniale internationale de 1931 et créateur de l'institut médico-légal situé place Mazas, en remplacement de l'ancienne morgue du quai de l'Archevêché.
 </t>
@@ -578,7 +594,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ombragé de platanes, ce square est ouvert en 1926.
 </t>
